--- a/data-factory/human-generated/dave-and-busters.xlsx
+++ b/data-factory/human-generated/dave-and-busters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\data-factory\human-generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23827BDE-ED9F-4A32-A1E9-902DD8074E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F969E9-EBAA-4197-A49D-D48A61175A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14431" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1350" windowWidth="19942" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LBO" sheetId="14" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="25" fillId="34" borderId="1" xfId="50"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1449,7 +1449,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="28" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1818,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A157" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E102" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="S170" sqref="S170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3891,15 +3890,15 @@
       </c>
       <c r="N77">
         <f ca="1">IF($F$20=1,N177,0)</f>
-        <v>93.558370243010089</v>
+        <v>93.558370243008426</v>
       </c>
       <c r="O77">
         <f ca="1">IF($F$20=1,O177,0)</f>
-        <v>90.215274036041919</v>
+        <v>90.215274035001997</v>
       </c>
       <c r="P77">
         <f ca="1">IF($F$20=1,P177,0)</f>
-        <v>84.662796871174805</v>
+        <v>84.662796525065005</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.45">
@@ -3963,15 +3962,15 @@
       </c>
       <c r="N79" s="7">
         <f t="shared" ca="1" si="49"/>
-        <v>70.53520280520506</v>
+        <v>70.535202805206723</v>
       </c>
       <c r="O79" s="7">
         <f t="shared" ca="1" si="49"/>
-        <v>103.33761177775615</v>
+        <v>103.33761177879607</v>
       </c>
       <c r="P79" s="7">
         <f t="shared" ca="1" si="49"/>
-        <v>143.28200889403081</v>
+        <v>143.28200924014061</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.45">
@@ -3997,15 +3996,15 @@
       </c>
       <c r="N80">
         <f ca="1">N38*N79</f>
-        <v>14.812392589093061</v>
+        <v>14.812392589093411</v>
       </c>
       <c r="O80">
         <f ca="1">O38*O79</f>
-        <v>21.700898473328792</v>
+        <v>21.700898473547173</v>
       </c>
       <c r="P80">
         <f ca="1">P38*P79</f>
-        <v>30.08922186774647</v>
+        <v>30.089221940429528</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.45">
@@ -4083,15 +4082,15 @@
       </c>
       <c r="N82" s="21">
         <f t="shared" ca="1" si="52"/>
-        <v>55.722810216111995</v>
+        <v>55.722810216113309</v>
       </c>
       <c r="O82" s="21">
         <f t="shared" ca="1" si="52"/>
-        <v>81.63671330442736</v>
+        <v>81.636713305248904</v>
       </c>
       <c r="P82" s="21">
         <f t="shared" ca="1" si="52"/>
-        <v>113.19278702628434</v>
+        <v>113.19278729971109</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.45">
@@ -4126,15 +4125,15 @@
       </c>
       <c r="N83" s="20">
         <f t="shared" ca="1" si="53"/>
-        <v>4.6568333871749489E-2</v>
+        <v>4.6568333871750585E-2</v>
       </c>
       <c r="O83" s="20">
         <f t="shared" ca="1" si="53"/>
-        <v>6.1306279464570825E-2</v>
+        <v>6.1306279465187775E-2</v>
       </c>
       <c r="P83" s="20">
         <f t="shared" ca="1" si="53"/>
-        <v>7.6358830425140231E-2</v>
+        <v>7.6358830609591449E-2</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.45">
@@ -4646,19 +4645,19 @@
       </c>
       <c r="M100">
         <f ca="1">IF($F$20=1,M150,0)</f>
-        <v>15</v>
+        <v>15.000000000000171</v>
       </c>
       <c r="N100">
         <f ca="1">IF($F$20=1,N150,0)</f>
-        <v>15</v>
+        <v>15.000000000279158</v>
       </c>
       <c r="O100">
         <f ca="1">IF($F$20=1,O150,0)</f>
-        <v>15</v>
+        <v>15.00000015966549</v>
       </c>
       <c r="P100">
         <f ca="1">IF($F$20=1,P150,0)</f>
-        <v>15</v>
+        <v>15.000046227765353</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.45">
@@ -4870,7 +4869,7 @@
         <v>14.881260000000008</v>
       </c>
       <c r="J106" s="25"/>
-      <c r="K106" s="57">
+      <c r="K106" s="56">
         <f t="shared" si="67"/>
         <v>14.881260000000008</v>
       </c>
@@ -4950,7 +4949,7 @@
       <c r="H108" s="28"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
-      <c r="K108" s="58">
+      <c r="K108" s="57">
         <f>SUM(K100:K107)</f>
         <v>4865.5052696330004</v>
       </c>
@@ -4964,15 +4963,15 @@
       </c>
       <c r="N108" s="21">
         <f t="shared" ca="1" si="73"/>
-        <v>4756.5003690085223</v>
+        <v>4756.5003690088015</v>
       </c>
       <c r="O108" s="21">
         <f t="shared" ca="1" si="73"/>
-        <v>4762.3158058072231</v>
+        <v>4762.3158059668885</v>
       </c>
       <c r="P108" s="21">
         <f t="shared" ca="1" si="73"/>
-        <v>4771.4435126615226</v>
+        <v>4771.4435588892875</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.45">
@@ -5235,15 +5234,15 @@
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="78"/>
-        <v>813.81886361426109</v>
+        <v>813.81886361425177</v>
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="78"/>
-        <v>710.23093758713583</v>
+        <v>710.23093757913807</v>
       </c>
       <c r="P116">
         <f t="shared" ca="1" si="78"/>
-        <v>575.17760229045734</v>
+        <v>575.17759864493053</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.45">
@@ -5360,15 +5359,15 @@
       </c>
       <c r="N120">
         <f t="shared" ca="1" si="81"/>
-        <v>1874.406987681667</v>
+        <v>1874.4069876816682</v>
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="81"/>
-        <v>1956.0437009860943</v>
+        <v>1956.043700986917</v>
       </c>
       <c r="P120">
         <f t="shared" ca="1" si="81"/>
-        <v>2069.2364880123787</v>
+        <v>2069.2364882866282</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.45">
@@ -5389,7 +5388,7 @@
       <c r="H121" s="28"/>
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
-      <c r="K121" s="58">
+      <c r="K121" s="57">
         <f>K120+SUM(K110:K118)</f>
         <v>4865.5052696330004</v>
       </c>
@@ -5403,15 +5402,15 @@
       </c>
       <c r="N121" s="21">
         <f t="shared" ca="1" si="82"/>
-        <v>4756.5003690085223</v>
+        <v>4756.5003690085141</v>
       </c>
       <c r="O121" s="21">
         <f t="shared" ca="1" si="82"/>
-        <v>4762.315805807224</v>
+        <v>4762.3158058000481</v>
       </c>
       <c r="P121" s="21">
         <f t="shared" ca="1" si="82"/>
-        <v>4771.4435126615226</v>
+        <v>4771.4435092902459</v>
       </c>
     </row>
     <row r="123" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -5442,15 +5441,15 @@
       </c>
       <c r="N123" s="22">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>2.8740032576024532E-10</v>
       </c>
       <c r="O123" s="22">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1.6684043657733127E-7</v>
       </c>
       <c r="P123" s="22">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>4.959904163115425E-5</v>
       </c>
     </row>
     <row r="124" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -5576,7 +5575,7 @@
       </c>
       <c r="P127">
         <f t="shared" ca="1" si="87"/>
-        <v>1689.7360806698362</v>
+        <v>1689.7360806698352</v>
       </c>
     </row>
     <row r="128" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -5609,7 +5608,7 @@
       </c>
       <c r="P128" s="26">
         <f t="shared" ca="1" si="88"/>
-        <v>0.12163663589710613</v>
+        <v>0.12163663589710616</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.45">
@@ -5659,15 +5658,15 @@
       </c>
       <c r="N132">
         <f ca="1">N82</f>
-        <v>55.722810216111995</v>
+        <v>55.722810216113309</v>
       </c>
       <c r="O132">
         <f ca="1">O82</f>
-        <v>81.63671330442736</v>
+        <v>81.636713305248904</v>
       </c>
       <c r="P132">
         <f ca="1">P82</f>
-        <v>113.19278702628434</v>
+        <v>113.19278729971109</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
@@ -5768,15 +5767,15 @@
       </c>
       <c r="N136" s="8">
         <f t="shared" ca="1" si="90"/>
-        <v>191.13707107654096</v>
+        <v>191.13707107654227</v>
       </c>
       <c r="O136" s="8">
         <f t="shared" ca="1" si="90"/>
-        <v>232.21131863784785</v>
+        <v>232.21131863866938</v>
       </c>
       <c r="P136" s="8">
         <f t="shared" ca="1" si="90"/>
-        <v>280.66996128735445</v>
+        <v>280.66996156078119</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.45">
@@ -5877,15 +5876,15 @@
       </c>
       <c r="N142">
         <f t="shared" ca="1" si="92"/>
-        <v>15</v>
+        <v>15.000000000000171</v>
       </c>
       <c r="O142">
         <f t="shared" ca="1" si="92"/>
-        <v>15</v>
+        <v>15.000000000279158</v>
       </c>
       <c r="P142">
         <f t="shared" ca="1" si="92"/>
-        <v>15</v>
+        <v>15.00000015966549</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.45">
@@ -5902,15 +5901,15 @@
       </c>
       <c r="N143">
         <f t="shared" ca="1" si="93"/>
-        <v>78.95671600661089</v>
+        <v>78.956716006612197</v>
       </c>
       <c r="O143">
         <f t="shared" ca="1" si="93"/>
-        <v>103.58792602712523</v>
+        <v>103.58792602794676</v>
       </c>
       <c r="P143">
         <f t="shared" ca="1" si="93"/>
-        <v>135.05333529667845</v>
+        <v>135.05333557010519</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.45">
@@ -5961,15 +5960,15 @@
       </c>
       <c r="N145" s="8">
         <f t="shared" ca="1" si="95"/>
-        <v>78.95671600661089</v>
+        <v>78.956716006612368</v>
       </c>
       <c r="O145" s="8">
         <f t="shared" ca="1" si="95"/>
-        <v>103.58792602712523</v>
+        <v>103.58792602822592</v>
       </c>
       <c r="P145" s="8">
         <f t="shared" ca="1" si="95"/>
-        <v>135.05333529667845</v>
+        <v>135.05333572977068</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.45">
@@ -6036,15 +6035,15 @@
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="98"/>
-        <v>-78.95671600661089</v>
+        <v>-78.956716006620411</v>
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="98"/>
-        <v>-103.58792602712523</v>
+        <v>-103.58792603539501</v>
       </c>
       <c r="P148">
         <f t="shared" ca="1" si="98"/>
-        <v>-135.05333529667845</v>
+        <v>-135.05333909725178</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.45">
@@ -6098,15 +6097,15 @@
       </c>
       <c r="N150" s="21">
         <f t="shared" ca="1" si="100"/>
-        <v>15</v>
+        <v>14.999999999991957</v>
       </c>
       <c r="O150" s="21">
         <f t="shared" ca="1" si="100"/>
-        <v>15</v>
+        <v>14.999999992830908</v>
       </c>
       <c r="P150" s="21">
         <f t="shared" ca="1" si="100"/>
-        <v>15</v>
+        <v>14.999996632518901</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.45">
@@ -6335,11 +6334,11 @@
       </c>
       <c r="O164">
         <f t="shared" ca="1" si="106"/>
-        <v>813.81886361426109</v>
+        <v>813.81886361425177</v>
       </c>
       <c r="P164">
         <f t="shared" ca="1" si="106"/>
-        <v>710.23093758713583</v>
+        <v>710.23093757913807</v>
       </c>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.45">
@@ -6381,15 +6380,15 @@
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="108"/>
-        <v>-78.95671600661089</v>
+        <v>-78.956716006612368</v>
       </c>
       <c r="O166">
         <f t="shared" ca="1" si="108"/>
-        <v>-103.58792602712523</v>
+        <v>-103.58792602822592</v>
       </c>
       <c r="P166">
         <f t="shared" ca="1" si="108"/>
-        <v>-135.05333529667845</v>
+        <v>-135.05333572977068</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.45">
@@ -6410,15 +6409,15 @@
       </c>
       <c r="N167">
         <f t="shared" ca="1" si="109"/>
-        <v>813.81886361426109</v>
+        <v>813.81886361425961</v>
       </c>
       <c r="O167">
         <f t="shared" ca="1" si="109"/>
-        <v>710.23093758713583</v>
+        <v>710.2309375860259</v>
       </c>
       <c r="P167">
         <f t="shared" ca="1" si="109"/>
-        <v>575.17760229045734</v>
+        <v>575.17760184936742</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.45">
@@ -6435,15 +6434,15 @@
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="110"/>
-        <v>49.064590243010073</v>
+        <v>49.064590243010038</v>
       </c>
       <c r="O168">
         <f t="shared" ca="1" si="110"/>
-        <v>45.721494036041904</v>
+        <v>45.721494036008558</v>
       </c>
       <c r="P168">
         <f t="shared" ca="1" si="110"/>
-        <v>40.16901687117479</v>
+        <v>40.169016857356041</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.45">
@@ -6564,15 +6563,15 @@
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="115"/>
-        <v>93.708370243010094</v>
+        <v>93.708370243010052</v>
       </c>
       <c r="O175">
         <f t="shared" ca="1" si="115"/>
-        <v>90.365274036041924</v>
+        <v>90.365274036008572</v>
       </c>
       <c r="P175">
         <f t="shared" ca="1" si="115"/>
-        <v>84.812796871174811</v>
+        <v>84.812796857356062</v>
       </c>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.45">
@@ -6589,15 +6588,15 @@
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="116"/>
-        <v>0.15</v>
+        <v>0.14999999999995978</v>
       </c>
       <c r="O176">
         <f t="shared" ca="1" si="116"/>
-        <v>0.15</v>
+        <v>0.14999999996411434</v>
       </c>
       <c r="P176">
         <f t="shared" ca="1" si="116"/>
-        <v>0.15</v>
+        <v>0.14999998312674906</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.45">
@@ -6618,11 +6617,11 @@
       </c>
       <c r="O177">
         <f t="shared" ca="1" si="117"/>
-        <v>90.215274036041919</v>
+        <v>90.215274036044462</v>
       </c>
       <c r="P177">
         <f t="shared" ca="1" si="117"/>
-        <v>84.662796871174805</v>
+        <v>84.662796874229315</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.45">
@@ -6639,15 +6638,15 @@
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="118"/>
-        <v>1309.8608636142612</v>
+        <v>1309.8608636142599</v>
       </c>
       <c r="O179">
         <f t="shared" ca="1" si="118"/>
-        <v>1206.2729375871361</v>
+        <v>1206.2729375860263</v>
       </c>
       <c r="P179">
         <f t="shared" ca="1" si="118"/>
-        <v>1071.2196022904577</v>
+        <v>1071.2196018493678</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.45">
@@ -6664,15 +6663,15 @@
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="119"/>
-        <v>1294.8608636142612</v>
+        <v>1294.8608636142678</v>
       </c>
       <c r="O180">
         <f t="shared" ca="1" si="119"/>
-        <v>1191.2729375871361</v>
+        <v>1191.2729375931954</v>
       </c>
       <c r="P180">
         <f t="shared" ca="1" si="119"/>
-        <v>1056.2196022904577</v>
+        <v>1056.2196052168488</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.45">
@@ -6689,15 +6688,15 @@
       </c>
       <c r="N181" s="15">
         <f ca="1">N180/N92</f>
-        <v>4.2385289064769083</v>
+        <v>4.2385289064769296</v>
       </c>
       <c r="O181" s="15">
         <f ca="1">O180/O92</f>
-        <v>3.3967935540772625</v>
+        <v>3.3967935540945398</v>
       </c>
       <c r="P181" s="15">
         <f ca="1">P180/P92</f>
-        <v>2.6229854830029895</v>
+        <v>2.6229854902703051</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.45">
@@ -6714,15 +6713,15 @@
       </c>
       <c r="N182" s="15">
         <f ca="1">N180/(N92-N57)</f>
-        <v>6.6981098598074889</v>
+        <v>6.6981098598075226</v>
       </c>
       <c r="O182" s="15">
         <f ca="1">O180/(O92-O57)</f>
-        <v>5.3641192277228882</v>
+        <v>5.3641192277501721</v>
       </c>
       <c r="P182" s="15">
         <f ca="1">P180/(P92-P57)</f>
-        <v>4.1088162519940488</v>
+        <v>4.1088162633780483</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.45">
@@ -6739,15 +6738,15 @@
       </c>
       <c r="N183" s="15">
         <f ca="1">N92/N77</f>
-        <v>3.2653166850984743</v>
+        <v>3.265316685098532</v>
       </c>
       <c r="O183" s="15">
         <f ca="1">O92/O77</f>
-        <v>3.8874252443720692</v>
+        <v>3.88742524441688</v>
       </c>
       <c r="P183" s="15">
         <f ca="1">P92/P77</f>
-        <v>4.7562615068324483</v>
+        <v>4.7562615262765116</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.45">
@@ -6812,7 +6811,7 @@
       <c r="B188" t="s">
         <v>180</v>
       </c>
-      <c r="C188" s="59">
+      <c r="C188" s="58">
         <v>18.2</v>
       </c>
       <c r="L188" s="31">
@@ -6875,15 +6874,15 @@
       </c>
       <c r="N190">
         <f t="shared" ref="N190:P190" ca="1" si="123">-N180</f>
-        <v>-1294.8608636142612</v>
+        <v>-1294.8608636142678</v>
       </c>
       <c r="O190">
         <f t="shared" ca="1" si="123"/>
-        <v>-1191.2729375871361</v>
+        <v>-1191.2729375931954</v>
       </c>
       <c r="P190">
         <f t="shared" ca="1" si="123"/>
-        <v>-1056.2196022904577</v>
+        <v>-1056.2196052168488</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.45">
@@ -6934,15 +6933,15 @@
       </c>
       <c r="N192" s="7">
         <f t="shared" ref="N192:P192" ca="1" si="125">SUM(N189:N191)</f>
-        <v>2997.406410794948</v>
+        <v>2997.4064107949416</v>
       </c>
       <c r="O192" s="7">
         <f t="shared" ca="1" si="125"/>
-        <v>3923.7694960377567</v>
+        <v>3923.7694960316976</v>
       </c>
       <c r="P192" s="7">
         <f t="shared" ca="1" si="125"/>
-        <v>5004.7363108179516</v>
+        <v>5004.7363078915614</v>
       </c>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.45">
@@ -6959,15 +6958,15 @@
       </c>
       <c r="N193">
         <f t="shared" ref="N193:P193" ca="1" si="126">-($F$17+$F$18)*N192</f>
-        <v>-299.74064107949482</v>
+        <v>-299.7406410794942</v>
       </c>
       <c r="O193">
         <f t="shared" ca="1" si="126"/>
-        <v>-392.3769496037757</v>
+        <v>-392.37694960316981</v>
       </c>
       <c r="P193">
         <f t="shared" ca="1" si="126"/>
-        <v>-500.47363108179519</v>
+        <v>-500.47363078915618</v>
       </c>
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.45">
@@ -6993,15 +6992,15 @@
       </c>
       <c r="N194" s="21">
         <f t="shared" ref="N194:P194" ca="1" si="127">SUM(N192:N193)</f>
-        <v>2697.6657697154533</v>
+        <v>2697.6657697154474</v>
       </c>
       <c r="O194" s="21">
         <f t="shared" ca="1" si="127"/>
-        <v>3531.3925464339809</v>
+        <v>3531.3925464285276</v>
       </c>
       <c r="P194" s="21">
         <f t="shared" ca="1" si="127"/>
-        <v>4504.2626797361563</v>
+        <v>4504.2626771024052</v>
       </c>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.45">
@@ -7027,15 +7026,15 @@
       </c>
       <c r="N196" s="34">
         <f t="shared" ref="N196:P196" ca="1" si="128">N194/$C$13</f>
-        <v>1.5886900142684981</v>
+        <v>1.5886900142684945</v>
       </c>
       <c r="O196" s="34">
         <f t="shared" ca="1" si="128"/>
-        <v>2.0796824195065629</v>
+        <v>2.0796824195033516</v>
       </c>
       <c r="P196" s="35">
         <f t="shared" ca="1" si="128"/>
-        <v>2.6526181342672004</v>
+        <v>2.6526181327161509</v>
       </c>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.45">
@@ -7061,15 +7060,15 @@
       </c>
       <c r="N197" s="38">
         <f t="shared" ref="N197:P197" ca="1" si="129">N196^(1/N186)-1</f>
-        <v>0.16684469288051851</v>
+        <v>0.16684469288051762</v>
       </c>
       <c r="O197" s="38">
         <f t="shared" ca="1" si="129"/>
-        <v>0.20087901337160674</v>
+        <v>0.20087901337114311</v>
       </c>
       <c r="P197" s="39">
         <f t="shared" ca="1" si="129"/>
-        <v>0.21544397977036223</v>
+        <v>0.21544397962822237</v>
       </c>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.45">
@@ -7095,15 +7094,15 @@
       </c>
       <c r="N198" s="41">
         <f t="shared" ref="N198:P198" ca="1" si="130">N194-$C$13</f>
-        <v>999.62162926834662</v>
+        <v>999.62162926834071</v>
       </c>
       <c r="O198" s="41">
         <f t="shared" ca="1" si="130"/>
-        <v>1833.3484059868742</v>
+        <v>1833.3484059814209</v>
       </c>
       <c r="P198" s="42">
         <f t="shared" ca="1" si="130"/>
-        <v>2806.2185392890497</v>
+        <v>2806.2185366552985</v>
       </c>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.45">
@@ -7118,7 +7117,7 @@
     <row r="202" spans="2:16" x14ac:dyDescent="0.45">
       <c r="I202" s="47">
         <f ca="1">P197</f>
-        <v>0.21544397977036223</v>
+        <v>0.21544397962822237</v>
       </c>
       <c r="J202" s="48">
         <f>K202-5%</f>
@@ -7148,10 +7147,10 @@
       </c>
       <c r="J203" s="26">
         <f t="dataTable" ref="J203:N207" dt2D="1" dtr="1" r1="F7" r2="C188" ca="1"/>
-        <v>0.2012833170149857</v>
+        <v>0.20128331701478963</v>
       </c>
       <c r="K203" s="26">
-        <v>0.18692265691370769</v>
+        <v>0.18692265691370324</v>
       </c>
       <c r="L203" s="26">
         <v>0.17353414880322759</v>
@@ -7261,7 +7260,7 @@
     <row r="210" spans="8:14" x14ac:dyDescent="0.45">
       <c r="I210" s="47">
         <f ca="1">P197</f>
-        <v>0.21544397977036223</v>
+        <v>0.21544397962822237</v>
       </c>
       <c r="J210" s="6">
         <f>K210-2</f>
